--- a/03/匹配工具/政策表.xlsx
+++ b/03/匹配工具/政策表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BEEBE-62F6-7D43-9F43-3893BC717B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A2B54-ACCD-F24D-9ECC-4ABC6B42CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23500" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="21120" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特价机整理" sheetId="2" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="807">
   <si>
     <t>型号</t>
   </si>
@@ -2627,6 +2627,14 @@
   </si>
   <si>
     <t>2025.10.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有地区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3149,6 +3157,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3176,7 +3185,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -5219,7 +5227,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -5231,12 +5239,12 @@
       <c r="D2" s="37">
         <v>1409</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="86" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="37" t="s">
         <v>87</v>
       </c>
@@ -5246,10 +5254,10 @@
       <c r="D3" s="37">
         <v>1479</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="37" t="s">
         <v>88</v>
       </c>
@@ -5259,10 +5267,10 @@
       <c r="D4" s="37">
         <v>1621</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="87"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="37" t="s">
         <v>89</v>
       </c>
@@ -5272,10 +5280,10 @@
       <c r="D5" s="37">
         <v>1550</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="86"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="37" t="s">
         <v>90</v>
       </c>
@@ -5285,10 +5293,10 @@
       <c r="D6" s="37">
         <v>1621</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="87"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="39" t="s">
         <v>91</v>
       </c>
@@ -5298,10 +5306,10 @@
       <c r="D7" s="39">
         <v>1762</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -5313,10 +5321,10 @@
       <c r="D8" s="37">
         <v>2658</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="41" t="s">
         <v>93</v>
       </c>
@@ -5326,7 +5334,7 @@
       <c r="D9" s="37">
         <v>2305</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="42" t="s">
@@ -5341,7 +5349,7 @@
       <c r="D10" s="45">
         <v>3061</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="42" t="s">
@@ -5356,7 +5364,7 @@
       <c r="D11" s="45">
         <v>2789</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="42" t="s">
@@ -5371,7 +5379,7 @@
       <c r="D12" s="45">
         <v>2925</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="42" t="s">
@@ -5386,7 +5394,7 @@
       <c r="D13" s="45">
         <v>2653</v>
       </c>
-      <c r="E13" s="86"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="42" t="s">
@@ -5401,7 +5409,7 @@
       <c r="D14" s="45">
         <v>2141</v>
       </c>
-      <c r="E14" s="86"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="42" t="s">
@@ -5416,7 +5424,7 @@
       <c r="D15" s="45">
         <v>2249</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="42" t="s">
@@ -5431,7 +5439,7 @@
       <c r="D16" s="45">
         <v>2400</v>
       </c>
-      <c r="E16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="42" t="s">
@@ -5446,7 +5454,7 @@
       <c r="D17" s="45">
         <v>2463</v>
       </c>
-      <c r="E17" s="86"/>
+      <c r="E17" s="87"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="42" t="s">
@@ -5461,7 +5469,7 @@
       <c r="D18" s="45">
         <v>2463</v>
       </c>
-      <c r="E18" s="86"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="42" t="s">
@@ -5476,7 +5484,7 @@
       <c r="D19" s="45">
         <v>2715</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5567,7 +5575,7 @@
         <v>9115.625</v>
       </c>
       <c r="K2" s="57"/>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="91" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5601,7 +5609,7 @@
         <v>9926.5</v>
       </c>
       <c r="K3" s="57"/>
-      <c r="L3" s="90"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="53" t="s">
@@ -5635,7 +5643,7 @@
         <v>7465</v>
       </c>
       <c r="K4" s="57"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="53" t="s">
@@ -5669,7 +5677,7 @@
         <v>8390</v>
       </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="53" t="s">
@@ -5703,7 +5711,7 @@
         <v>9983.75</v>
       </c>
       <c r="K6" s="57"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="91"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="53" t="s">
@@ -5737,7 +5745,7 @@
         <v>10171.25</v>
       </c>
       <c r="K7" s="57"/>
-      <c r="L7" s="90"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="53" t="s">
@@ -5771,7 +5779,7 @@
         <v>11758.75</v>
       </c>
       <c r="K8" s="57"/>
-      <c r="L8" s="90"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="53" t="s">
@@ -5805,7 +5813,7 @@
         <v>13821.25</v>
       </c>
       <c r="K9" s="57"/>
-      <c r="L9" s="90"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="53" t="s">
@@ -5837,7 +5845,7 @@
         <v>10383.75</v>
       </c>
       <c r="K10" s="57"/>
-      <c r="L10" s="90"/>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="53" t="s">
@@ -5869,7 +5877,7 @@
         <v>11071.25</v>
       </c>
       <c r="K11" s="57"/>
-      <c r="L11" s="90"/>
+      <c r="L11" s="91"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="53" t="s">
@@ -5903,7 +5911,7 @@
         <v>12333.75</v>
       </c>
       <c r="K12" s="57"/>
-      <c r="L12" s="90"/>
+      <c r="L12" s="91"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="53" t="s">
@@ -5937,7 +5945,7 @@
         <v>13952.5</v>
       </c>
       <c r="K13" s="57"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="91"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="53" t="s">
@@ -5971,7 +5979,7 @@
         <v>11113.15</v>
       </c>
       <c r="K14" s="57"/>
-      <c r="L14" s="90"/>
+      <c r="L14" s="91"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="53" t="s">
@@ -6005,7 +6013,7 @@
         <v>12830.55</v>
       </c>
       <c r="K15" s="57"/>
-      <c r="L15" s="90"/>
+      <c r="L15" s="91"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="53" t="s">
@@ -6039,7 +6047,7 @@
         <v>15051.7</v>
       </c>
       <c r="K16" s="57"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="91"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="53" t="s">
@@ -6071,7 +6079,7 @@
         <v>6766.25</v>
       </c>
       <c r="K17" s="57"/>
-      <c r="L17" s="90"/>
+      <c r="L17" s="91"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="53" t="s">
@@ -6103,7 +6111,7 @@
         <v>7228.75</v>
       </c>
       <c r="K18" s="57"/>
-      <c r="L18" s="90"/>
+      <c r="L18" s="91"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="53" t="s">
@@ -6137,7 +6145,7 @@
         <v>10860</v>
       </c>
       <c r="K19" s="57"/>
-      <c r="L19" s="90"/>
+      <c r="L19" s="91"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="53" t="s">
@@ -6171,7 +6179,7 @@
         <v>12446.25</v>
       </c>
       <c r="K20" s="57"/>
-      <c r="L20" s="90"/>
+      <c r="L20" s="91"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="53" t="s">
@@ -6205,7 +6213,7 @@
         <v>14508.75</v>
       </c>
       <c r="K21" s="57"/>
-      <c r="L21" s="90"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="22" spans="1:12" ht="24">
       <c r="A22" s="53" t="s">
@@ -6237,7 +6245,7 @@
         <v>10383.75</v>
       </c>
       <c r="K22" s="57"/>
-      <c r="L22" s="90"/>
+      <c r="L22" s="91"/>
     </row>
     <row r="23" spans="1:12" ht="24">
       <c r="A23" s="53" t="s">
@@ -6269,7 +6277,7 @@
         <v>11071.25</v>
       </c>
       <c r="K23" s="57"/>
-      <c r="L23" s="90"/>
+      <c r="L23" s="91"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="53" t="s">
@@ -6303,7 +6311,7 @@
         <v>10902.5</v>
       </c>
       <c r="K24" s="57"/>
-      <c r="L24" s="90"/>
+      <c r="L24" s="91"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="53" t="s">
@@ -6337,7 +6345,7 @@
         <v>11796.25</v>
       </c>
       <c r="K25" s="57"/>
-      <c r="L25" s="90"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="53" t="s">
@@ -6371,7 +6379,7 @@
         <v>13021.25</v>
       </c>
       <c r="K26" s="57"/>
-      <c r="L26" s="90"/>
+      <c r="L26" s="91"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="53" t="s">
@@ -6405,7 +6413,7 @@
         <v>14641.25</v>
       </c>
       <c r="K27" s="57"/>
-      <c r="L27" s="90"/>
+      <c r="L27" s="91"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="53" t="s">
@@ -6439,7 +6447,7 @@
         <v>9877.5</v>
       </c>
       <c r="K28" s="57"/>
-      <c r="L28" s="90"/>
+      <c r="L28" s="91"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="53" t="s">
@@ -6473,7 +6481,7 @@
         <v>10502.5</v>
       </c>
       <c r="K29" s="57"/>
-      <c r="L29" s="90"/>
+      <c r="L29" s="91"/>
     </row>
     <row r="30" spans="1:12" ht="24">
       <c r="A30" s="53" t="s">
@@ -6505,7 +6513,7 @@
         <v>11071.25</v>
       </c>
       <c r="K30" s="57"/>
-      <c r="L30" s="90"/>
+      <c r="L30" s="91"/>
     </row>
     <row r="31" spans="1:12" ht="24">
       <c r="A31" s="53" t="s">
@@ -6537,7 +6545,7 @@
         <v>11946.25</v>
       </c>
       <c r="K31" s="57"/>
-      <c r="L31" s="90"/>
+      <c r="L31" s="91"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="53" t="s">
@@ -6569,7 +6577,7 @@
         <v>11990</v>
       </c>
       <c r="K32" s="57"/>
-      <c r="L32" s="90"/>
+      <c r="L32" s="91"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="53" t="s">
@@ -6601,7 +6609,7 @@
         <v>13815</v>
       </c>
       <c r="K33" s="57"/>
-      <c r="L33" s="90"/>
+      <c r="L33" s="91"/>
     </row>
     <row r="34" spans="1:12" ht="24">
       <c r="A34" s="53" t="s">
@@ -6633,7 +6641,7 @@
         <v>13071.25</v>
       </c>
       <c r="K34" s="57"/>
-      <c r="L34" s="90"/>
+      <c r="L34" s="91"/>
     </row>
     <row r="35" spans="1:12" ht="24">
       <c r="A35" s="53" t="s">
@@ -6665,7 +6673,7 @@
         <v>14946.25</v>
       </c>
       <c r="K35" s="57"/>
-      <c r="L35" s="90"/>
+      <c r="L35" s="91"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="53" t="s">
@@ -6699,7 +6707,7 @@
         <v>17146.25</v>
       </c>
       <c r="K36" s="57"/>
-      <c r="L36" s="90"/>
+      <c r="L36" s="91"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="53" t="s">
@@ -6733,7 +6741,7 @@
         <v>20583.75</v>
       </c>
       <c r="K37" s="57"/>
-      <c r="L37" s="90"/>
+      <c r="L37" s="91"/>
     </row>
     <row r="38" spans="1:12" ht="24">
       <c r="A38" s="53" t="s">
@@ -6767,7 +6775,7 @@
         <v>25233.75</v>
       </c>
       <c r="K38" s="57"/>
-      <c r="L38" s="90"/>
+      <c r="L38" s="91"/>
     </row>
     <row r="39" spans="1:12" ht="24">
       <c r="A39" s="53" t="s">
@@ -6801,7 +6809,7 @@
         <v>27296.25</v>
       </c>
       <c r="K39" s="57"/>
-      <c r="L39" s="90"/>
+      <c r="L39" s="91"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="53" t="s">
@@ -6833,7 +6841,7 @@
         <v>4827.5</v>
       </c>
       <c r="K40" s="57"/>
-      <c r="L40" s="90"/>
+      <c r="L40" s="91"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="53" t="s">
@@ -6865,65 +6873,65 @@
         <v>5996.25</v>
       </c>
       <c r="K41" s="57"/>
-      <c r="L41" s="90"/>
+      <c r="L41" s="91"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="93"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="93"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="93"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16993,10 +17001,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8604592-951A-8942-9102-4C50A89BA426}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O1" sqref="O1:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17009,7 +17017,7 @@
     <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17044,8 +17052,11 @@
       <c r="N1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17">
+      <c r="O1" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
@@ -17072,8 +17083,11 @@
       <c r="N2" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17">
+      <c r="O2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -17100,8 +17114,11 @@
       <c r="N3" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17">
+      <c r="O3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -17128,8 +17145,11 @@
       <c r="N4" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17">
+      <c r="O4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -17156,8 +17176,11 @@
       <c r="N5" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17">
+      <c r="O5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17">
       <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
@@ -17184,8 +17207,11 @@
       <c r="N6" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17">
+      <c r="O6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -17212,8 +17238,11 @@
       <c r="N7" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="17">
+      <c r="O7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -17254,8 +17283,11 @@
       <c r="N8" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="17">
+      <c r="O8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -17298,8 +17330,11 @@
       <c r="N9" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="17">
+      <c r="O9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -17342,8 +17377,11 @@
       <c r="N10" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="17">
+      <c r="O10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -17387,8 +17425,11 @@
       <c r="N11" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17">
+      <c r="O11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -17432,8 +17473,11 @@
       <c r="N12" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17">
+      <c r="O12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -17477,8 +17521,11 @@
       <c r="N13" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17">
+      <c r="O13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -17522,8 +17569,11 @@
       <c r="N14" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17">
+      <c r="O14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -17552,8 +17602,11 @@
       <c r="N15" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17">
+      <c r="O15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -17584,8 +17637,11 @@
       <c r="N16" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17">
+      <c r="O16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -17616,8 +17672,11 @@
       <c r="N17" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17">
+      <c r="O17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -17648,8 +17707,11 @@
       <c r="N18" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17">
+      <c r="O18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -17680,8 +17742,11 @@
       <c r="N19" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17">
+      <c r="O19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -17700,8 +17765,11 @@
       <c r="N20" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17">
+      <c r="O20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -17728,8 +17796,11 @@
       <c r="N21" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17">
+      <c r="O21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17">
       <c r="A22" s="70" t="s">
         <v>171</v>
       </c>
@@ -17756,8 +17827,11 @@
       <c r="N22" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17">
+      <c r="O22" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -17784,8 +17858,11 @@
       <c r="N23" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17">
+      <c r="O23" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -17804,8 +17881,11 @@
       <c r="N24" s="84">
         <v>45938</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17">
+      <c r="O24" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17824,6 +17904,9 @@
       <c r="N25" s="84">
         <v>45938</v>
       </c>
+      <c r="O25" t="s">
+        <v>806</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17833,10 +17916,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424C5A3A-99FB-4940-AB1B-41BDD1D10705}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17849,7 +17932,7 @@
     <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17884,8 +17967,11 @@
       <c r="N1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17">
+      <c r="O1" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
@@ -17906,14 +17992,17 @@
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="94" t="s">
+      <c r="M2" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N2" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17">
+      <c r="O2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17">
       <c r="A3" s="1" t="s">
         <v>163</v>
       </c>
@@ -17934,14 +18023,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N3" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17">
+      <c r="O3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -17962,14 +18054,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N4" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17">
+      <c r="O4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -17990,14 +18085,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="94" t="s">
+      <c r="M5" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N5" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17">
+      <c r="O5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17">
       <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
@@ -18018,14 +18116,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N6" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17">
+      <c r="O6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17">
       <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
@@ -18046,14 +18147,17 @@
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N7" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="17">
+      <c r="O7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -18088,14 +18192,17 @@
       <c r="L8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="94" t="s">
+      <c r="M8" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N8" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="17">
+      <c r="O8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -18132,14 +18239,17 @@
         <v>25</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N9" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="17">
+      <c r="O9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -18176,14 +18286,17 @@
         <v>26</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N10" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="17">
+      <c r="O10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -18221,14 +18334,17 @@
         <v>26</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N11" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17">
+      <c r="O11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -18266,14 +18382,17 @@
         <v>26</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N12" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17">
+      <c r="O12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -18311,14 +18430,17 @@
         <v>26</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="94" t="s">
+      <c r="M13" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N13" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17">
+      <c r="O13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -18356,14 +18478,17 @@
         <v>26</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="94" t="s">
+      <c r="M14" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N14" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17">
+      <c r="O14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -18386,14 +18511,17 @@
         <v>24</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="94" t="s">
+      <c r="M15" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N15" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17">
+      <c r="O15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -18418,14 +18546,17 @@
         <v>24</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="94" t="s">
+      <c r="M16" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17">
+      <c r="O16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -18450,14 +18581,17 @@
         <v>24</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="94" t="s">
+      <c r="M17" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N17" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17">
+      <c r="O17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -18482,14 +18616,17 @@
         <v>24</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="94" t="s">
+      <c r="M18" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N18" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17">
+      <c r="O18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -18514,14 +18651,17 @@
         <v>24</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="94" t="s">
+      <c r="M19" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N19" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17">
+      <c r="O19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -18534,14 +18674,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="68"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="94" t="s">
+      <c r="M20" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N20" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17">
+      <c r="O20" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -18562,14 +18705,17 @@
       <c r="L21" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="94" t="s">
+      <c r="M21" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N21" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17">
+      <c r="O21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17">
       <c r="A22" s="70" t="s">
         <v>171</v>
       </c>
@@ -18590,14 +18736,17 @@
       <c r="L22" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="M22" s="94" t="s">
+      <c r="M22" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N22" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17">
+      <c r="O22" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -18618,14 +18767,17 @@
       <c r="L23" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="M23" s="94" t="s">
+      <c r="M23" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N23" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17">
+      <c r="O23" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -18638,14 +18790,17 @@
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="94" t="s">
+      <c r="M24" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N24" s="84" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17">
+      <c r="O24" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -18658,11 +18813,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="94" t="s">
+      <c r="M25" s="85" t="s">
         <v>803</v>
       </c>
       <c r="N25" s="84" t="s">
         <v>804</v>
+      </c>
+      <c r="O25" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
